--- a/data/trans_orig/P64D$andando_2023-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P64D$andando_2023-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>46308</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>32479</v>
+        <v>34465</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>60800</v>
+        <v>60838</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2606406273988908</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1828079432125892</v>
+        <v>0.1939820345771384</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3422074765817251</v>
+        <v>0.3424258285113408</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>97</v>
@@ -762,19 +762,19 @@
         <v>79868</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>67405</v>
+        <v>68365</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>91881</v>
+        <v>93149</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4682865219294566</v>
+        <v>0.4682865219294567</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3952123353313145</v>
+        <v>0.4008414549164603</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5387229043420084</v>
+        <v>0.5461615128174634</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>135</v>
@@ -783,19 +783,19 @@
         <v>126176</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>110300</v>
+        <v>106617</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>146262</v>
+        <v>145320</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3623419006896356</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3167502361436523</v>
+        <v>0.3061732564772955</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4200238248920568</v>
+        <v>0.4173193304533435</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>9026</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2270</v>
+        <v>2362</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25663</v>
+        <v>24786</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05080223452972683</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01277722148585853</v>
+        <v>0.01329157058825299</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1444404891557577</v>
+        <v>0.1395090855333484</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5794</v>
+        <v>5824</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.009817827319033464</v>
+        <v>0.009817827319033466</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0339724466603818</v>
+        <v>0.03414530778166001</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -854,19 +854,19 @@
         <v>10700</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3491</v>
+        <v>4236</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26666</v>
+        <v>30297</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.0307287993779409</v>
+        <v>0.03072879937794089</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01002636896826653</v>
+        <v>0.01216549008500222</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.07657745847156018</v>
+        <v>0.08700529370332785</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>6304</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2220</v>
+        <v>2239</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16908</v>
+        <v>17748</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03548304439097509</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01249268808486353</v>
+        <v>0.01260488842483002</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09516841750917931</v>
+        <v>0.0998925130755203</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>7</v>
@@ -904,19 +904,19 @@
         <v>5004</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2128</v>
+        <v>2041</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10082</v>
+        <v>10019</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02934108467661962</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01247515125938173</v>
+        <v>0.01196584165811725</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.05911393594456749</v>
+        <v>0.05874277289740588</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -925,19 +925,19 @@
         <v>11308</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5578</v>
+        <v>5708</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22040</v>
+        <v>21722</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.03247482154668254</v>
+        <v>0.03247482154668253</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01601828041787459</v>
+        <v>0.01639150305049357</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.06329227897962014</v>
+        <v>0.06238093889494391</v>
       </c>
     </row>
     <row r="7">
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3907</v>
+        <v>4761</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.004878628200069803</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02199099366970401</v>
+        <v>0.02679452192942127</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -978,16 +978,16 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8134</v>
+        <v>7304</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.007829106510796784</v>
+        <v>0.007829106510796786</v>
       </c>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04768963023344139</v>
+        <v>0.04282536432044132</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -999,16 +999,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7403</v>
+        <v>8210</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0063237201037457</v>
+        <v>0.006323720103745699</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02125860312962924</v>
+        <v>0.02357602957215608</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>105691</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>88725</v>
+        <v>89674</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>121261</v>
+        <v>119710</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5948770964944569</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4993815635229887</v>
+        <v>0.5047261476230734</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6825134781589841</v>
+        <v>0.6737808501525893</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>92</v>
@@ -1046,19 +1046,19 @@
         <v>72911</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>60973</v>
+        <v>61502</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>86264</v>
+        <v>86153</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.4274966660947881</v>
+        <v>0.4274966660947883</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3575018526225855</v>
+        <v>0.3606046981054716</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5057875465392834</v>
+        <v>0.5051412119254836</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>181</v>
@@ -1067,19 +1067,19 @@
         <v>178603</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>158610</v>
+        <v>157754</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>198280</v>
+        <v>197228</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5128971327967234</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4554842307271599</v>
+        <v>0.4530265617105118</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5694063495770141</v>
+        <v>0.5663842473886096</v>
       </c>
     </row>
     <row r="9">
@@ -1096,19 +1096,19 @@
         <v>29869</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20635</v>
+        <v>20506</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>41681</v>
+        <v>42013</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1681170366358328</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1161422901165299</v>
+        <v>0.1154195739374435</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2346007374293763</v>
+        <v>0.2364687238590321</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>42</v>
@@ -1117,19 +1117,19 @@
         <v>36200</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>26864</v>
+        <v>27269</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47309</v>
+        <v>49008</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2122499628653729</v>
+        <v>0.212249962865373</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1575087343707081</v>
+        <v>0.1598843647595219</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.277384312965465</v>
+        <v>0.287346322849354</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>67</v>
@@ -1138,19 +1138,19 @@
         <v>66069</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>52543</v>
+        <v>51925</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>82931</v>
+        <v>81879</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1897325605147797</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1508902125854135</v>
+        <v>0.149112987052921</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.238155101118487</v>
+        <v>0.2351328788069125</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>127673</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>106905</v>
+        <v>106281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>151818</v>
+        <v>152528</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2501481702552905</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2094580650443545</v>
+        <v>0.208234896225555</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2974559037821782</v>
+        <v>0.2988462457605268</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>188</v>
@@ -1192,19 +1192,19 @@
         <v>144483</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>128157</v>
+        <v>128723</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>161644</v>
+        <v>161751</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4012375422586524</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.35589853490046</v>
+        <v>0.3574709104252671</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4488933677518321</v>
+        <v>0.4491918911375379</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>294</v>
@@ -1213,19 +1213,19 @@
         <v>272156</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>243936</v>
+        <v>241898</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>301222</v>
+        <v>300175</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3126495575697347</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2802305858899646</v>
+        <v>0.2778898695470838</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3460409875622854</v>
+        <v>0.3448379717468843</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>7378</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2334</v>
+        <v>2234</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19306</v>
+        <v>19438</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01445661792610099</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004573184249376536</v>
+        <v>0.004376743858961927</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03782539391049721</v>
+        <v>0.03808377759111797</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1263,19 +1263,19 @@
         <v>2513</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6992</v>
+        <v>7430</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.006978307493607398</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001957713982829605</v>
+        <v>0.001972359586894463</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01941644787350388</v>
+        <v>0.0206326447297894</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>7</v>
@@ -1284,19 +1284,19 @@
         <v>9891</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4091</v>
+        <v>3901</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>22280</v>
+        <v>21520</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.01136305303400169</v>
+        <v>0.0113630530340017</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.004699490537323056</v>
+        <v>0.004481153950334328</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02559550274018767</v>
+        <v>0.02472250157534358</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>17103</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8883</v>
+        <v>9439</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29779</v>
+        <v>28527</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03350906718510196</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01740469452114411</v>
+        <v>0.01849390224946777</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.05834529209031018</v>
+        <v>0.05589330172877861</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -1334,19 +1334,19 @@
         <v>9539</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5221</v>
+        <v>5212</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>17226</v>
+        <v>18626</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0264911253022053</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01449943309263</v>
+        <v>0.01447373556503843</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04783697360417248</v>
+        <v>0.05172414430627625</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>25</v>
@@ -1355,19 +1355,19 @@
         <v>26642</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17692</v>
+        <v>16902</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>40931</v>
+        <v>40487</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03060594370290611</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02032445298286713</v>
+        <v>0.01941642973618185</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0470207572161702</v>
+        <v>0.04651132732193861</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>7435</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2991</v>
+        <v>2717</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15137</v>
+        <v>16640</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01456772087972657</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.005860177086575069</v>
+        <v>0.005323608694201672</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02965788011951125</v>
+        <v>0.03260188550252057</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>5</v>
@@ -1405,19 +1405,19 @@
         <v>5006</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1728</v>
+        <v>1752</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11917</v>
+        <v>11440</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01390071970038296</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004799532482279812</v>
+        <v>0.004866758493329006</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03309300054431576</v>
+        <v>0.03176975403442261</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -1426,19 +1426,19 @@
         <v>12441</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>5915</v>
+        <v>6418</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>22313</v>
+        <v>21532</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01429180141235054</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006794827253743446</v>
+        <v>0.007373432408122272</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02563292619770233</v>
+        <v>0.02473593807775502</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>367615</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>341086</v>
+        <v>343027</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>389089</v>
+        <v>387297</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.7202656282760358</v>
+        <v>0.7202656282760359</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.668287812094426</v>
+        <v>0.6720914651608291</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7623387115761594</v>
+        <v>0.7588277684308107</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>262</v>
@@ -1476,19 +1476,19 @@
         <v>203398</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>185615</v>
+        <v>185414</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>218605</v>
+        <v>219479</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5648477952541713</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5154622517317289</v>
+        <v>0.5149056862946465</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.607077948700932</v>
+        <v>0.6095042253602962</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>571</v>
@@ -1497,19 +1497,19 @@
         <v>571013</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>541514</v>
+        <v>540121</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>601171</v>
+        <v>598521</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.6559736794217177</v>
+        <v>0.655973679421718</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6220847231384683</v>
+        <v>0.6204854996688507</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6906184881824208</v>
+        <v>0.6875747611812536</v>
       </c>
     </row>
     <row r="15">
@@ -1526,19 +1526,19 @@
         <v>40522</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>28585</v>
+        <v>27474</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>58405</v>
+        <v>55407</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07939520788545035</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05600614102513422</v>
+        <v>0.05382991356372181</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1144335079552539</v>
+        <v>0.1085577861506283</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>61</v>
@@ -1547,19 +1547,19 @@
         <v>51439</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>39842</v>
+        <v>39674</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>64796</v>
+        <v>64531</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1428480556249703</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1106428319276768</v>
+        <v>0.1101758402951918</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1799429071919583</v>
+        <v>0.1792052797503097</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>93</v>
@@ -1568,19 +1568,19 @@
         <v>91961</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>74803</v>
+        <v>73261</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>111036</v>
+        <v>114752</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.1056438510572807</v>
+        <v>0.1056438510572808</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08593249722328543</v>
+        <v>0.08416129484364794</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1275569914437442</v>
+        <v>0.1318261080804121</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>133672</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>111438</v>
+        <v>111304</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>157537</v>
+        <v>156931</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2149143875959182</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1791662389024426</v>
+        <v>0.178950908273094</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2532833691064125</v>
+        <v>0.2523088912837811</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>234</v>
@@ -1622,19 +1622,19 @@
         <v>166994</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>149103</v>
+        <v>148988</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>186795</v>
+        <v>185200</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3417521686041888</v>
+        <v>0.3417521686041889</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3051374157214521</v>
+        <v>0.3049021592108363</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3822732270689346</v>
+        <v>0.3790102886534926</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>354</v>
@@ -1643,19 +1643,19 @@
         <v>300667</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>272229</v>
+        <v>273312</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>331044</v>
+        <v>332118</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2707193873620051</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2451138718531432</v>
+        <v>0.2460890409471172</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.298070896798725</v>
+        <v>0.2990377585056163</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>9075</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4158</v>
+        <v>4133</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15813</v>
+        <v>17071</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01459020354195948</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006685207600103049</v>
+        <v>0.006644609514828761</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.0254243038560075</v>
+        <v>0.02744626014104432</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>7</v>
@@ -1693,19 +1693,19 @@
         <v>5379</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2313</v>
+        <v>2132</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>10634</v>
+        <v>11280</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01100704756726222</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.004733100101083713</v>
+        <v>0.004363503899046451</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0217616919920037</v>
+        <v>0.02308531002386638</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -1714,19 +1714,19 @@
         <v>14453</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8192</v>
+        <v>8701</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22964</v>
+        <v>23242</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01301371728730957</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.007375620533450073</v>
+        <v>0.00783394231352391</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02067696497397857</v>
+        <v>0.02092663178556798</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>23100</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>13965</v>
+        <v>14823</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>35554</v>
+        <v>36265</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.03714017957465392</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02245260707791587</v>
+        <v>0.0238323049001534</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05716289048132443</v>
+        <v>0.05830574558403211</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>31</v>
@@ -1764,19 +1764,19 @@
         <v>23424</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>16184</v>
+        <v>16442</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33201</v>
+        <v>33127</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.04793672305910272</v>
+        <v>0.04793672305910273</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.03312079935903475</v>
+        <v>0.0336476643123451</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.06794498546638206</v>
+        <v>0.06779393229025657</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>50</v>
@@ -1785,19 +1785,19 @@
         <v>46524</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>34273</v>
+        <v>34575</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>62173</v>
+        <v>61904</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.04189035024016663</v>
+        <v>0.04189035024016664</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.03085960430066415</v>
+        <v>0.0311313153611643</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.05598073874493448</v>
+        <v>0.05573850000250325</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>4337</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>933</v>
+        <v>1227</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10966</v>
+        <v>10615</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006973493521285263</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.001500699010626946</v>
+        <v>0.001972036878962538</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.017631265983414</v>
+        <v>0.01706653710978069</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1835,19 +1835,19 @@
         <v>2898</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7869</v>
+        <v>8755</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.005931636586591734</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001435811467411642</v>
+        <v>0.001428020829982647</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01610333034239074</v>
+        <v>0.01791800390421478</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -1856,19 +1856,19 @@
         <v>7236</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3060</v>
+        <v>3179</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>14332</v>
+        <v>13970</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.006515106236876077</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.002755516295919092</v>
+        <v>0.002862201205511711</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01290447134698268</v>
+        <v>0.01257839877200547</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>474098</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>451880</v>
+        <v>450116</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>497498</v>
+        <v>496255</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7622397280752756</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7265184842775747</v>
+        <v>0.7236823260861714</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7998617289129168</v>
+        <v>0.7978628462296209</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>439</v>
@@ -1906,19 +1906,19 @@
         <v>316238</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>298064</v>
+        <v>296785</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>335349</v>
+        <v>334397</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6471764446843092</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6099849648493034</v>
+        <v>0.6073661475290084</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6862883056820266</v>
+        <v>0.6843390533425417</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>866</v>
@@ -1927,19 +1927,19 @@
         <v>790336</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>758502</v>
+        <v>761937</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>819059</v>
+        <v>820469</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7116151708520665</v>
+        <v>0.7116151708520666</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6829521771041338</v>
+        <v>0.686044849857671</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7374773153566054</v>
+        <v>0.7387466459538252</v>
       </c>
     </row>
     <row r="21">
@@ -1956,19 +1956,19 @@
         <v>49803</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>36741</v>
+        <v>37085</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>65997</v>
+        <v>67206</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.08007178234175613</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.05907134805416198</v>
+        <v>0.05962346925965527</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1061083424833568</v>
+        <v>0.1080516797102751</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>63</v>
@@ -1977,19 +1977,19 @@
         <v>49357</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>38424</v>
+        <v>38138</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>62276</v>
+        <v>61991</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1010088015764497</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07863418407092394</v>
+        <v>0.07804866796825417</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1274479092369146</v>
+        <v>0.1268635104882697</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>107</v>
@@ -1998,19 +1998,19 @@
         <v>99160</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>80955</v>
+        <v>83146</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>119811</v>
+        <v>120101</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.08928347261421876</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07289120680406939</v>
+        <v>0.07486395449062992</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1078777057126506</v>
+        <v>0.108138142051237</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>118942</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>98567</v>
+        <v>98827</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>143359</v>
+        <v>139608</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.201417499732325</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.166914115799265</v>
+        <v>0.1673543920412967</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2427657211305135</v>
+        <v>0.2364140305593979</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>234</v>
@@ -2052,19 +2052,19 @@
         <v>149907</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>132218</v>
+        <v>133167</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>166602</v>
+        <v>167734</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3248285224447995</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2864980841841767</v>
+        <v>0.2885559948436784</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.361003160378524</v>
+        <v>0.3634567657459628</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>354</v>
@@ -2073,19 +2073,19 @@
         <v>268849</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>244414</v>
+        <v>242431</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>297138</v>
+        <v>295745</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2555549682206614</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2323283275223203</v>
+        <v>0.2304438425870864</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2824450173539676</v>
+        <v>0.281121386456112</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>12543</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6395</v>
+        <v>6908</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>22677</v>
+        <v>25449</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02124035067032871</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01082913486270751</v>
+        <v>0.01169835475214907</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03840212282451847</v>
+        <v>0.04309522849407156</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>8</v>
@@ -2123,19 +2123,19 @@
         <v>6027</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2888</v>
+        <v>2897</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>11885</v>
+        <v>11756</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01305980460192872</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.006257681831174913</v>
+        <v>0.006278272615514846</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02575425309925498</v>
+        <v>0.02547469433216679</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>19</v>
@@ -2144,19 +2144,19 @@
         <v>18570</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>11497</v>
+        <v>11422</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>30028</v>
+        <v>30859</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01765174046954295</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01092803780841882</v>
+        <v>0.01085736300374589</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.02854282607183874</v>
+        <v>0.02933296089815064</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>38030</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25553</v>
+        <v>25841</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>54638</v>
+        <v>55144</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.06440054109286042</v>
+        <v>0.06440054109286041</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04327192532165266</v>
+        <v>0.0437599672514551</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.09252520955193011</v>
+        <v>0.09338212823535223</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>32</v>
@@ -2194,19 +2194,19 @@
         <v>23439</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>15952</v>
+        <v>16030</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32764</v>
+        <v>33421</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0507885943230186</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03456585304534895</v>
+        <v>0.03473540424511754</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07099565369381491</v>
+        <v>0.07241899227997753</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>62</v>
@@ -2215,19 +2215,19 @@
         <v>61469</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>47297</v>
+        <v>46548</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>79159</v>
+        <v>79924</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.05842930511149993</v>
+        <v>0.05842930511149992</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0449581668001766</v>
+        <v>0.04424655307488182</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.07524463290419764</v>
+        <v>0.07597170310632137</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>8077</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>3624</v>
+        <v>3148</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15771</v>
+        <v>15329</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01367788406309687</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006136394007923093</v>
+        <v>0.005330405598715845</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02670609865995047</v>
+        <v>0.02595820352425593</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2265,19 +2265,19 @@
         <v>3706</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>715</v>
+        <v>732</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>12763</v>
+        <v>15558</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.008029962665199043</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001549731814854439</v>
+        <v>0.00158569940895574</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02765585545545832</v>
+        <v>0.03371169731071529</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>10</v>
@@ -2286,19 +2286,19 @@
         <v>11783</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5522</v>
+        <v>6084</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>21993</v>
+        <v>22348</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01120027582371237</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.005249095473185056</v>
+        <v>0.005783053409981715</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0209056583902541</v>
+        <v>0.02124319534372025</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>445782</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>421545</v>
+        <v>423555</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>467268</v>
+        <v>468377</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7548936032416649</v>
+        <v>0.7548936032416648</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7138496272621624</v>
+        <v>0.7172546850739101</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7912775948179634</v>
+        <v>0.7931555527268379</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>445</v>
@@ -2336,19 +2336,19 @@
         <v>315611</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>297471</v>
+        <v>298107</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>333103</v>
+        <v>332913</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6838867987969626</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6445805690908195</v>
+        <v>0.6459579992315279</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7217904273305186</v>
+        <v>0.7213777766884634</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>838</v>
@@ -2357,19 +2357,19 @@
         <v>761393</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>730562</v>
+        <v>732316</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>791433</v>
+        <v>790607</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7237446138435407</v>
+        <v>0.7237446138435405</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6944378433524195</v>
+        <v>0.696105059495941</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7522992049673131</v>
+        <v>0.7515143187190004</v>
       </c>
     </row>
     <row r="27">
@@ -2386,19 +2386,19 @@
         <v>36644</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>25354</v>
+        <v>26056</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>54095</v>
+        <v>52239</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.06205428616373459</v>
+        <v>0.0620542861637346</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.04293424583698487</v>
+        <v>0.04412379621230639</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09160504688287055</v>
+        <v>0.08846286711135933</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>35</v>
@@ -2407,19 +2407,19 @@
         <v>30274</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>21462</v>
+        <v>20878</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>41403</v>
+        <v>41477</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06559906483479395</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.04650634421791239</v>
+        <v>0.04523880483642535</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08971455714358979</v>
+        <v>0.08987419158806773</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>64</v>
@@ -2428,19 +2428,19 @@
         <v>66918</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>52266</v>
+        <v>50708</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>85504</v>
+        <v>85311</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.06360929591395528</v>
+        <v>0.06360929591395525</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04968200409488668</v>
+        <v>0.04820088172278082</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08127644015626917</v>
+        <v>0.08109238076423564</v>
       </c>
     </row>
     <row r="28">
@@ -2461,19 +2461,19 @@
         <v>426595</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>387620</v>
+        <v>385191</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>465040</v>
+        <v>465808</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2244572681569578</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2039505689327988</v>
+        <v>0.2026721452595134</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.244685450644399</v>
+        <v>0.2450897343627116</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>753</v>
@@ -2482,19 +2482,19 @@
         <v>541252</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>509261</v>
+        <v>506070</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>575034</v>
+        <v>578283</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.3655172427111509</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3439127434651108</v>
+        <v>0.3417577440598813</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3883308036185473</v>
+        <v>0.390524848986262</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1137</v>
@@ -2503,19 +2503,19 @@
         <v>967847</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>917339</v>
+        <v>921551</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1019538</v>
+        <v>1024001</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2862313224976076</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2712941813906655</v>
+        <v>0.2725395615748824</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3015183186840426</v>
+        <v>0.3028381835973666</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>38022</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>23957</v>
+        <v>25757</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>55389</v>
+        <v>58702</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02000578952446147</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01260508300665938</v>
+        <v>0.01355237636254891</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02914370155581113</v>
+        <v>0.03088675966403102</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>20</v>
@@ -2553,19 +2553,19 @@
         <v>15593</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9635</v>
+        <v>9531</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>23390</v>
+        <v>23576</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.01053013097881819</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.006506999847325849</v>
+        <v>0.006436683217964622</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.01579535381614593</v>
+        <v>0.01592126341664099</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>48</v>
@@ -2574,19 +2574,19 @@
         <v>53615</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>38977</v>
+        <v>39759</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>75588</v>
+        <v>75752</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01585613723817718</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01152719374816747</v>
+        <v>0.01175847718156427</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02235451884018531</v>
+        <v>0.02240296226754842</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>84537</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>65509</v>
+        <v>65834</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>108291</v>
+        <v>107052</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04448021130045968</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.03446812750152406</v>
+        <v>0.03463916941134201</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.0569786743618549</v>
+        <v>0.05632647030444829</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>82</v>
@@ -2624,19 +2624,19 @@
         <v>61406</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>48735</v>
+        <v>48250</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>75758</v>
+        <v>75548</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04146863658390931</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03291143776941989</v>
+        <v>0.03258394934862536</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05116037963805287</v>
+        <v>0.05101907517730866</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>148</v>
@@ -2645,19 +2645,19 @@
         <v>145943</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>122958</v>
+        <v>121662</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>173291</v>
+        <v>171028</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04316135965045007</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03636351579802753</v>
+        <v>0.03598034629136645</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05124924376515083</v>
+        <v>0.05057996847128522</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>20716</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>12684</v>
+        <v>12586</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>33305</v>
+        <v>30766</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01090018071396161</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.006673917319321357</v>
+        <v>0.006622374952670834</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0175237040617466</v>
+        <v>0.01618802804980869</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -2695,19 +2695,19 @@
         <v>12945</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6179</v>
+        <v>6761</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>23050</v>
+        <v>22456</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.008742041086892829</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.004172455053816517</v>
+        <v>0.004565798536417925</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01556626989789863</v>
+        <v>0.01516524240543184</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>30</v>
@@ -2716,19 +2716,19 @@
         <v>33662</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>22643</v>
+        <v>22936</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>48625</v>
+        <v>48387</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.00995507183372402</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.006696368376851018</v>
+        <v>0.006783052640194737</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01438046614697766</v>
+        <v>0.0143100625820813</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>1393187</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1347644</v>
+        <v>1345532</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>1434945</v>
+        <v>1438486</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.7330397506117521</v>
+        <v>0.7330397506117519</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7090771558916037</v>
+        <v>0.7079654725641005</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.7550110568874365</v>
+        <v>0.7568746270387323</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>1238</v>
@@ -2766,19 +2766,19 @@
         <v>908158</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>873316</v>
+        <v>874755</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>939670</v>
+        <v>944351</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6132947802770402</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.5897655127545842</v>
+        <v>0.5907373325832886</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6345755174101297</v>
+        <v>0.6377369080692482</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2456</v>
@@ -2787,19 +2787,19 @@
         <v>2301345</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>2244579</v>
+        <v>2246802</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>2356755</v>
+        <v>2355226</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6806001246451805</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6638122530052193</v>
+        <v>0.6644697339894898</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.6969872160939081</v>
+        <v>0.6965351876394553</v>
       </c>
     </row>
     <row r="33">
@@ -2816,19 +2816,19 @@
         <v>156839</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>133248</v>
+        <v>132238</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>185184</v>
+        <v>185220</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.08252257021543057</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.07010987289679384</v>
+        <v>0.06957842167148659</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.09743669565996924</v>
+        <v>0.09745540218390918</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>201</v>
@@ -2837,19 +2837,19 @@
         <v>167269</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>147017</v>
+        <v>143956</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>191223</v>
+        <v>191164</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.1129599992958385</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.09928286294010542</v>
+        <v>0.09721602723194601</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.1291359750581132</v>
+        <v>0.1290962516607518</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>331</v>
@@ -2858,19 +2858,19 @@
         <v>324109</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>289200</v>
+        <v>290187</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>358752</v>
+        <v>359286</v>
       </c>
       <c r="U33" s="6" t="n">
-        <v>0.09585196010044317</v>
+        <v>0.09585196010044318</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.08552805066040957</v>
+        <v>0.08581986310900791</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.106097451833115</v>
+        <v>0.1062553333408912</v>
       </c>
     </row>
     <row r="34">
